--- a/data/codebook-main-step4-sample-without-results.xlsx
+++ b/data/codebook-main-step4-sample-without-results.xlsx
@@ -14969,16 +14969,16 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="S143" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="T143">
@@ -18968,7 +18968,7 @@
         </is>
       </c>
       <c r="H185">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I185">
         <v>1</v>
@@ -19066,7 +19066,7 @@
         </is>
       </c>
       <c r="H186">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I186">
         <v>1</v>
@@ -19164,7 +19164,7 @@
         </is>
       </c>
       <c r="H187">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I187">
         <v>1</v>
@@ -19262,7 +19262,7 @@
         </is>
       </c>
       <c r="H188">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I188">
         <v>1</v>
@@ -19360,7 +19360,7 @@
         </is>
       </c>
       <c r="H189">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I189">
         <v>1</v>
@@ -19458,7 +19458,7 @@
         </is>
       </c>
       <c r="H190">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I190">
         <v>1</v>
@@ -19629,7 +19629,7 @@
     </row>
     <row r="192">
       <c r="A192">
-        <v>771</v>
+        <v>791</v>
       </c>
       <c r="B192">
         <v>278</v>
@@ -19700,7 +19700,7 @@
         </is>
       </c>
       <c r="T192">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>

--- a/data/codebook-main-step4-sample-without-results.xlsx
+++ b/data/codebook-main-step4-sample-without-results.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM295"/>
+  <dimension ref="A1:AN295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,6 +553,11 @@
           <t>comments</t>
         </is>
       </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -675,6 +680,9 @@
           <t>These first 3 lines are all pre-analysis checks</t>
         </is>
       </c>
+      <c r="AN2">
+        <v>27</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -792,6 +800,9 @@
       <c r="AI3">
         <v>0</v>
       </c>
+      <c r="AN3">
+        <v>28</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -909,6 +920,9 @@
       <c r="AI4">
         <v>0</v>
       </c>
+      <c r="AN4">
+        <v>29</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -1026,6 +1040,9 @@
       <c r="AI5">
         <v>0</v>
       </c>
+      <c r="AN5">
+        <v>33</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -1143,6 +1160,9 @@
       <c r="AI6">
         <v>0</v>
       </c>
+      <c r="AN6">
+        <v>34</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -1275,6 +1295,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN7">
+        <v>67</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -1407,6 +1430,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN8">
+        <v>68</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -1574,6 +1600,9 @@
           <t>Depression and anxiety appear to only be compared across control and experimental groups; not across time.</t>
         </is>
       </c>
+      <c r="AN9">
+        <v>72</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -1741,6 +1770,9 @@
           <t>Depression and anxiety appear to only be compared across control and experimental groups; not across time.</t>
         </is>
       </c>
+      <c r="AN10">
+        <v>73</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -1848,6 +1880,9 @@
       <c r="AI11">
         <v>0</v>
       </c>
+      <c r="AN11">
+        <v>78</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1960,6 +1995,9 @@
           <t>Not sure if it's existing or ad hoc measure. Some references exist but it is not clear whether the measure can be considered validated. Since we don't know; we coded all scales as NA.</t>
         </is>
       </c>
+      <c r="AN12">
+        <v>135</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -2072,6 +2110,9 @@
           <t>Not sure if it's existing or ad hoc measure. Some references exist but it is not clear whether the measure can be considered validated. Since we don't know; we coded all scales as NA.</t>
         </is>
       </c>
+      <c r="AN13">
+        <v>136</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -2184,6 +2225,9 @@
           <t>Not sure if it's existing or ad hoc measure. Some references exist but it is not clear whether the measure can be considered validated. Since we don't know; we coded all scales as NA.</t>
         </is>
       </c>
+      <c r="AN14">
+        <v>137</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -2301,6 +2345,9 @@
       <c r="AI15">
         <v>0</v>
       </c>
+      <c r="AN15">
+        <v>170</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -2443,6 +2490,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN16">
+        <v>357</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -2585,6 +2635,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN17">
+        <v>358</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -2727,6 +2780,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN18">
+        <v>359</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -2869,6 +2925,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN19">
+        <v>360</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -3011,6 +3070,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN20">
+        <v>361</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -3153,6 +3215,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN21">
+        <v>363</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -3295,6 +3360,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN22">
+        <v>365</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -3437,6 +3505,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN23">
+        <v>366</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -3579,6 +3650,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN24">
+        <v>367</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -3721,6 +3795,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN25">
+        <v>368</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -3863,6 +3940,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN26">
+        <v>369</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -4005,6 +4085,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN27">
+        <v>371</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -4167,6 +4250,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN28">
+        <v>372</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -4329,6 +4415,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN29">
+        <v>373</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -4496,6 +4585,9 @@
           <t>This scale has a reference to another article without "adapted from".</t>
         </is>
       </c>
+      <c r="AN30">
+        <v>374</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -4658,6 +4750,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN31">
+        <v>375</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -4825,6 +4920,9 @@
           <t>This scale has a reference to another article without "adapted from".</t>
         </is>
       </c>
+      <c r="AN32">
+        <v>376</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -4987,6 +5085,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN33">
+        <v>377</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -5149,6 +5250,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN34">
+        <v>378</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -5311,6 +5415,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN35">
+        <v>379</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -5473,6 +5580,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN36">
+        <v>380</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -5635,6 +5745,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN37">
+        <v>382</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -5797,6 +5910,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN38">
+        <v>383</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -5964,6 +6080,9 @@
           <t>This scale has a reference to another article without "adapted from".</t>
         </is>
       </c>
+      <c r="AN39">
+        <v>384</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -6126,6 +6245,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN40">
+        <v>385</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -6293,6 +6415,9 @@
           <t>This scale has a reference to another article without "adapted from".</t>
         </is>
       </c>
+      <c r="AN41">
+        <v>386</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -6455,6 +6580,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN42">
+        <v>387</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -6617,6 +6745,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN43">
+        <v>388</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -6779,6 +6910,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN44">
+        <v>389</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -6941,6 +7075,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN45">
+        <v>390</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -7108,6 +7245,9 @@
           <t>it seems that control/schools/families are compared over time; but not between control/schools/families</t>
         </is>
       </c>
+      <c r="AN46">
+        <v>391</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -7275,6 +7415,9 @@
           <t>it seems that control/schools/families are compared over time; but not between control/schools/families</t>
         </is>
       </c>
+      <c r="AN47">
+        <v>392</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -7442,6 +7585,9 @@
           <t>it seems that control/schools/families are compared over time; but not between control/schools/families</t>
         </is>
       </c>
+      <c r="AN48">
+        <v>393</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -7609,6 +7755,9 @@
           <t>This scale has a reference to another article without "adapted from". It seems that control/schools/families are compared over time; but not between control/schools/families</t>
         </is>
       </c>
+      <c r="AN49">
+        <v>394</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -7716,6 +7865,9 @@
       <c r="AI50">
         <v>0</v>
       </c>
+      <c r="AN50">
+        <v>417</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -7823,6 +7975,9 @@
       <c r="AI51">
         <v>0</v>
       </c>
+      <c r="AN51">
+        <v>418</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -7935,6 +8090,9 @@
           <t>The measure is validated but the authors added two items. Hence; I considered it ad-hoc</t>
         </is>
       </c>
+      <c r="AN52">
+        <v>483</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -8042,6 +8200,9 @@
       <c r="AI53">
         <v>0</v>
       </c>
+      <c r="AN53">
+        <v>484</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -8149,6 +8310,9 @@
       <c r="AI54">
         <v>0</v>
       </c>
+      <c r="AN54">
+        <v>485</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -8256,6 +8420,9 @@
       <c r="AI55">
         <v>0</v>
       </c>
+      <c r="AN55">
+        <v>487</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -8368,6 +8535,9 @@
           <t>Iat measures were not included</t>
         </is>
       </c>
+      <c r="AN56">
+        <v>489</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -8475,6 +8645,9 @@
       <c r="AI57">
         <v>0</v>
       </c>
+      <c r="AN57">
+        <v>490</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -8582,6 +8755,9 @@
       <c r="AI58">
         <v>0</v>
       </c>
+      <c r="AN58">
+        <v>491</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -8719,6 +8895,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN59">
+        <v>536</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -8856,6 +9035,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN60">
+        <v>538</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -8993,6 +9175,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN61">
+        <v>539</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -9130,6 +9315,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN62">
+        <v>540</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -9267,6 +9455,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN63">
+        <v>541</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -9404,6 +9595,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN64">
+        <v>542</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -9541,6 +9735,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN65">
+        <v>543</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -9678,6 +9875,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN66">
+        <v>544</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -9815,6 +10015,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN67">
+        <v>545</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -9952,6 +10155,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN68">
+        <v>546</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -10089,6 +10295,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN69">
+        <v>547</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -10226,6 +10435,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN70">
+        <v>548</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -10363,6 +10575,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN71">
+        <v>549</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -10500,6 +10715,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN72">
+        <v>550</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -10637,6 +10855,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN73">
+        <v>551</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -10774,6 +10995,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN74">
+        <v>552</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -10911,6 +11135,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN75">
+        <v>553</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -11048,6 +11275,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN76">
+        <v>554</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -11185,6 +11415,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN77">
+        <v>555</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -11322,6 +11555,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN78">
+        <v>556</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -11459,6 +11695,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN79">
+        <v>558</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -11596,6 +11835,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN80">
+        <v>559</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -11733,6 +11975,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN81">
+        <v>560</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -11870,6 +12115,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN82">
+        <v>561</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -12007,6 +12255,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN83">
+        <v>563</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -12144,6 +12395,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN84">
+        <v>564</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -12281,6 +12535,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN85">
+        <v>565</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -12418,6 +12675,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN86">
+        <v>566</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -12555,6 +12815,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN87">
+        <v>567</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -12692,6 +12955,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN88">
+        <v>568</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -12829,6 +13095,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN89">
+        <v>569</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -12966,6 +13235,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN90">
+        <v>570</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -13103,6 +13375,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN91">
+        <v>571</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -13240,6 +13515,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN92">
+        <v>572</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -13377,6 +13655,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN93">
+        <v>573</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -13514,6 +13795,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN94">
+        <v>574</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -13651,6 +13935,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN95">
+        <v>575</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -13788,6 +14075,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN96">
+        <v>576</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -13925,6 +14215,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN97">
+        <v>578</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -14062,6 +14355,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN98">
+        <v>579</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -14199,6 +14495,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN99">
+        <v>580</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -14336,6 +14635,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN100">
+        <v>581</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -14473,6 +14775,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN101">
+        <v>583</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -14610,6 +14915,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN102">
+        <v>584</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -14747,6 +15055,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN103">
+        <v>585</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -14884,6 +15195,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN104">
+        <v>586</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -15021,6 +15335,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN105">
+        <v>587</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -15158,6 +15475,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN106">
+        <v>588</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -15295,6 +15615,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN107">
+        <v>590</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -15432,6 +15755,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN108">
+        <v>591</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -15569,6 +15895,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN109">
+        <v>592</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -15706,6 +16035,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN110">
+        <v>593</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -15843,6 +16175,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN111">
+        <v>594</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -15980,6 +16315,9 @@
           <t>reliability estimates for all scales: we don't know at which time point these are measured</t>
         </is>
       </c>
+      <c r="AN112">
+        <v>595</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -16117,6 +16455,9 @@
           <t>they measure this scale; then divide it into quartiles</t>
         </is>
       </c>
+      <c r="AN113">
+        <v>828</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -16274,6 +16615,9 @@
           <t>they measure this scale; then divide it into quartiles</t>
         </is>
       </c>
+      <c r="AN114">
+        <v>829</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -16441,6 +16785,9 @@
           <t>they measure this scale; then divide it into quartiles</t>
         </is>
       </c>
+      <c r="AN115">
+        <v>830</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -16578,6 +16925,9 @@
           <t>they measure this scale; then divide it into quartiles</t>
         </is>
       </c>
+      <c r="AN116">
+        <v>831</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -16715,6 +17065,9 @@
           <t>they measure this scale; then divide it into quartiles</t>
         </is>
       </c>
+      <c r="AN117">
+        <v>832</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -16872,6 +17225,9 @@
           <t>they measure this scale; then divide it into quartiles</t>
         </is>
       </c>
+      <c r="AN118">
+        <v>833</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -17019,6 +17375,9 @@
           <t>they measure this scale; then divide it into quartiles</t>
         </is>
       </c>
+      <c r="AN119">
+        <v>834</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -17166,6 +17525,9 @@
           <t>they measure this scale; then divide it into quartiles</t>
         </is>
       </c>
+      <c r="AN120">
+        <v>835</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -17323,6 +17685,9 @@
           <t>they measure this scale; then divide it into quartiles</t>
         </is>
       </c>
+      <c r="AN121">
+        <v>836</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122">
@@ -17460,6 +17825,9 @@
           <t>they measure this scale; then divide it into quartiles</t>
         </is>
       </c>
+      <c r="AN122">
+        <v>837</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123">
@@ -17597,6 +17965,9 @@
           <t>they measure this scale; then divide it into quartiles</t>
         </is>
       </c>
+      <c r="AN123">
+        <v>838</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124">
@@ -17754,6 +18125,9 @@
           <t>they measure this scale; then divide it into quartiles</t>
         </is>
       </c>
+      <c r="AN124">
+        <v>839</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125">
@@ -17921,6 +18295,9 @@
           <t>they measure this scale; then divide it into quartiles</t>
         </is>
       </c>
+      <c r="AN125">
+        <v>840</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126">
@@ -18058,6 +18435,9 @@
           <t>they measure this scale; then divide it into quartiles</t>
         </is>
       </c>
+      <c r="AN126">
+        <v>841</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127">
@@ -18195,6 +18575,9 @@
           <t>they measure this scale; then divide it into quartiles</t>
         </is>
       </c>
+      <c r="AN127">
+        <v>842</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128">
@@ -18352,6 +18735,9 @@
           <t>they measure this scale; then divide it into quartiles</t>
         </is>
       </c>
+      <c r="AN128">
+        <v>843</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129">
@@ -18499,6 +18885,9 @@
           <t>they measure this scale; then divide it into quartiles</t>
         </is>
       </c>
+      <c r="AN129">
+        <v>844</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130">
@@ -18646,6 +19035,9 @@
           <t>they measure this scale; then divide it into quartiles</t>
         </is>
       </c>
+      <c r="AN130">
+        <v>845</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131">
@@ -18803,6 +19195,9 @@
           <t>they measure this scale; then divide it into quartiles</t>
         </is>
       </c>
+      <c r="AN131">
+        <v>846</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132">
@@ -18940,6 +19335,9 @@
           <t>they measure this scale; then divide it into quartiles</t>
         </is>
       </c>
+      <c r="AN132">
+        <v>847</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133">
@@ -19077,6 +19475,9 @@
           <t>they measure this scale; then divide it into quartiles</t>
         </is>
       </c>
+      <c r="AN133">
+        <v>848</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134">
@@ -19234,6 +19635,9 @@
           <t>they measure this scale; then divide it into quartiles</t>
         </is>
       </c>
+      <c r="AN134">
+        <v>849</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135">
@@ -19401,6 +19805,9 @@
           <t>they measure this scale; then divide it into quartiles</t>
         </is>
       </c>
+      <c r="AN135">
+        <v>850</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136">
@@ -19538,6 +19945,9 @@
           <t>they measure this scale; then divide it into quartiles</t>
         </is>
       </c>
+      <c r="AN136">
+        <v>851</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137">
@@ -19675,6 +20085,9 @@
           <t>they measure this scale; then divide it into quartiles</t>
         </is>
       </c>
+      <c r="AN137">
+        <v>852</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138">
@@ -19832,6 +20245,9 @@
           <t>they measure this scale; then divide it into quartiles</t>
         </is>
       </c>
+      <c r="AN138">
+        <v>853</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139">
@@ -19979,6 +20395,9 @@
           <t>they measure this scale; then divide it into quartiles</t>
         </is>
       </c>
+      <c r="AN139">
+        <v>854</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140">
@@ -20126,6 +20545,9 @@
           <t>they measure this scale; then divide it into quartiles</t>
         </is>
       </c>
+      <c r="AN140">
+        <v>855</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141">
@@ -20283,6 +20705,9 @@
           <t>they measure this scale; then divide it into quartiles</t>
         </is>
       </c>
+      <c r="AN141">
+        <v>856</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142">
@@ -20420,6 +20845,9 @@
           <t>they measure this scale; then divide it into quartiles</t>
         </is>
       </c>
+      <c r="AN142">
+        <v>857</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143">
@@ -20542,6 +20970,9 @@
           <t>IAT</t>
         </is>
       </c>
+      <c r="AN143">
+        <v>908</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144">
@@ -20664,6 +21095,9 @@
           <t>IAT</t>
         </is>
       </c>
+      <c r="AN144">
+        <v>912</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145">
@@ -20786,6 +21220,9 @@
           <t>IAT</t>
         </is>
       </c>
+      <c r="AN145">
+        <v>913</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146">
@@ -20908,6 +21345,9 @@
           <t>IAT</t>
         </is>
       </c>
+      <c r="AN146">
+        <v>914</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147">
@@ -21030,6 +21470,9 @@
           <t>CRT is another scale (cognitive response) but only included as a covariate.</t>
         </is>
       </c>
+      <c r="AN147">
+        <v>915</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148">
@@ -21152,6 +21595,9 @@
           <t>CRT is another scale (cognitive response) but only included as a covariate.</t>
         </is>
       </c>
+      <c r="AN148">
+        <v>916</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149">
@@ -21274,6 +21720,9 @@
           <t>only dependent measure that is a scale is postmessage attitude. Only grouping variables are message type; political orientation; and appeal</t>
         </is>
       </c>
+      <c r="AN149">
+        <v>921</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150">
@@ -21396,6 +21845,9 @@
           <t>only dependent measure that is a scale is postmessage attitude. Only grouping variables are message type; political orientation; and appeal</t>
         </is>
       </c>
+      <c r="AN150">
+        <v>922</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151">
@@ -21518,6 +21970,9 @@
           <t>only dependent measure that is a scale is postmessage attitude. Only grouping variables are message type; political orientation; and appeal</t>
         </is>
       </c>
+      <c r="AN151">
+        <v>923</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152">
@@ -21635,6 +22090,9 @@
       <c r="AI152">
         <v>0</v>
       </c>
+      <c r="AN152">
+        <v>993</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153">
@@ -21752,6 +22210,9 @@
       <c r="AI153">
         <v>0</v>
       </c>
+      <c r="AN153">
+        <v>994</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154">
@@ -21869,6 +22330,9 @@
       <c r="AI154">
         <v>0</v>
       </c>
+      <c r="AN154">
+        <v>995</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155">
@@ -21986,6 +22450,9 @@
       <c r="AI155">
         <v>0</v>
       </c>
+      <c r="AN155">
+        <v>996</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156">
@@ -22103,6 +22570,9 @@
       <c r="AI156">
         <v>0</v>
       </c>
+      <c r="AN156">
+        <v>997</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157">
@@ -22220,6 +22690,9 @@
       <c r="AI157">
         <v>0</v>
       </c>
+      <c r="AN157">
+        <v>998</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158">
@@ -22337,6 +22810,9 @@
       <c r="AI158">
         <v>0</v>
       </c>
+      <c r="AN158">
+        <v>999</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159">
@@ -22454,6 +22930,9 @@
       <c r="AI159">
         <v>0</v>
       </c>
+      <c r="AN159">
+        <v>1000</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160">
@@ -22571,6 +23050,9 @@
       <c r="AI160">
         <v>0</v>
       </c>
+      <c r="AN160">
+        <v>1001</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161">
@@ -22688,6 +23170,9 @@
       <c r="AI161">
         <v>0</v>
       </c>
+      <c r="AN161">
+        <v>1002</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162">
@@ -22805,6 +23290,9 @@
       <c r="AI162">
         <v>0</v>
       </c>
+      <c r="AN162">
+        <v>1003</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163">
@@ -22922,6 +23410,9 @@
       <c r="AI163">
         <v>0</v>
       </c>
+      <c r="AN163">
+        <v>1004</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164">
@@ -23039,6 +23530,9 @@
       <c r="AI164">
         <v>0</v>
       </c>
+      <c r="AN164">
+        <v>1005</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165">
@@ -23156,6 +23650,9 @@
       <c r="AI165">
         <v>0</v>
       </c>
+      <c r="AN165">
+        <v>1006</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166">
@@ -23273,6 +23770,9 @@
       <c r="AI166">
         <v>0</v>
       </c>
+      <c r="AN166">
+        <v>1007</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167">
@@ -23390,6 +23890,9 @@
       <c r="AI167">
         <v>0</v>
       </c>
+      <c r="AN167">
+        <v>1008</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168">
@@ -23507,6 +24010,9 @@
       <c r="AI168">
         <v>0</v>
       </c>
+      <c r="AN168">
+        <v>1009</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169">
@@ -23624,6 +24130,9 @@
       <c r="AI169">
         <v>0</v>
       </c>
+      <c r="AN169">
+        <v>1010</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170">
@@ -23741,6 +24250,9 @@
       <c r="AI170">
         <v>0</v>
       </c>
+      <c r="AN170">
+        <v>1011</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171">
@@ -23858,6 +24370,9 @@
       <c r="AI171">
         <v>0</v>
       </c>
+      <c r="AN171">
+        <v>1012</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172">
@@ -23975,6 +24490,9 @@
       <c r="AI172">
         <v>0</v>
       </c>
+      <c r="AN172">
+        <v>1013</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173">
@@ -24092,6 +24610,9 @@
       <c r="AI173">
         <v>0</v>
       </c>
+      <c r="AN173">
+        <v>1014</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174">
@@ -24209,6 +24730,9 @@
       <c r="AI174">
         <v>0</v>
       </c>
+      <c r="AN174">
+        <v>1015</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175">
@@ -24326,6 +24850,9 @@
       <c r="AI175">
         <v>0</v>
       </c>
+      <c r="AN175">
+        <v>1016</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176">
@@ -24453,6 +24980,9 @@
           <t>"Results from Studies 3a and 3b are pooled and reported below including dummy codes for each study."</t>
         </is>
       </c>
+      <c r="AN176">
+        <v>1018</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177">
@@ -24580,6 +25110,9 @@
           <t>"Results from Studies 3a and 3b are pooled and reported below including dummy codes for each study."</t>
         </is>
       </c>
+      <c r="AN177">
+        <v>1019</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178">
@@ -24707,6 +25240,9 @@
           <t>"Results from Studies 3a and 3b are pooled and reported below including dummy codes for each study."</t>
         </is>
       </c>
+      <c r="AN178">
+        <v>1020</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179">
@@ -24834,6 +25370,9 @@
           <t>"Results from Studies 3a and 3b are pooled and reported below including dummy codes for each study."</t>
         </is>
       </c>
+      <c r="AN179">
+        <v>1021</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180">
@@ -24951,6 +25490,9 @@
       <c r="AI180">
         <v>0</v>
       </c>
+      <c r="AN180">
+        <v>1061</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181">
@@ -25068,6 +25610,9 @@
       <c r="AI181">
         <v>0</v>
       </c>
+      <c r="AN181">
+        <v>1062</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182">
@@ -25190,6 +25735,9 @@
           <t>Authors do PCA but also use a cronbachs alpha so I coded it as reflective.</t>
         </is>
       </c>
+      <c r="AN182">
+        <v>1063</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183">
@@ -25312,6 +25860,9 @@
           <t>Authors do PCA but also use a cronbachs alpha so I coded it as reflective.</t>
         </is>
       </c>
+      <c r="AN183">
+        <v>1064</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184">
@@ -25419,6 +25970,9 @@
       <c r="AI184">
         <v>0</v>
       </c>
+      <c r="AN184">
+        <v>1071</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185">
@@ -25526,6 +26080,9 @@
       <c r="AI185">
         <v>0</v>
       </c>
+      <c r="AN185">
+        <v>1072</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186">
@@ -25633,6 +26190,9 @@
       <c r="AI186">
         <v>0</v>
       </c>
+      <c r="AN186">
+        <v>1073</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187">
@@ -25740,6 +26300,9 @@
       <c r="AI187">
         <v>0</v>
       </c>
+      <c r="AN187">
+        <v>1074</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188">
@@ -25847,6 +26410,9 @@
       <c r="AI188">
         <v>0</v>
       </c>
+      <c r="AN188">
+        <v>1075</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189">
@@ -25949,6 +26515,9 @@
           <t>DV is "experienced closeness to their partner"; 4 questions answerd on 0-6 likert scale. Other DVs from experiment 1 also measured.</t>
         </is>
       </c>
+      <c r="AN189">
+        <v>1122</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190">
@@ -26081,6 +26650,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN190">
+        <v>1176</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191">
@@ -26213,6 +26785,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN191">
+        <v>1177</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192">
@@ -26355,6 +26930,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN192">
+        <v>1178</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193">
@@ -26497,6 +27075,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN193">
+        <v>1179</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194">
@@ -26629,6 +27210,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN194">
+        <v>1195</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195">
@@ -26761,6 +27345,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN195">
+        <v>1196</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196">
@@ -26893,6 +27480,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN196">
+        <v>1197</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197">
@@ -27025,6 +27615,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN197">
+        <v>1198</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198">
@@ -27157,6 +27750,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN198">
+        <v>1201</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199">
@@ -27289,6 +27885,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN199">
+        <v>1202</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200">
@@ -27421,6 +28020,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN200">
+        <v>1203</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201">
@@ -27553,6 +28155,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN201">
+        <v>1204</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202">
@@ -27690,6 +28295,9 @@
           <t>Postgame survey is three items as well but they get analyzed separately.</t>
         </is>
       </c>
+      <c r="AN202">
+        <v>1207</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203">
@@ -27827,6 +28435,9 @@
           <t>Postgame survey is three items as well but they get analyzed separately.</t>
         </is>
       </c>
+      <c r="AN203">
+        <v>1208</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204">
@@ -27964,6 +28575,9 @@
           <t>scale was adapted from other study</t>
         </is>
       </c>
+      <c r="AN204">
+        <v>1215</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205">
@@ -28096,6 +28710,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN205">
+        <v>1216</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206">
@@ -28228,6 +28845,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN206">
+        <v>1217</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207">
@@ -28360,6 +28980,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN207">
+        <v>1218</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208">
@@ -28492,6 +29115,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN208">
+        <v>1219</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209">
@@ -28639,6 +29265,9 @@
           <t>high reliability of these four items within each condition; Cronbach’s alphas were greater than .90; supplemental material is not clear</t>
         </is>
       </c>
+      <c r="AN209">
+        <v>1243</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210">
@@ -28771,6 +29400,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN210">
+        <v>1274</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211">
@@ -28903,6 +29535,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN211">
+        <v>1275</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212">
@@ -29035,6 +29670,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN212">
+        <v>1287</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213">
@@ -29167,6 +29805,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN213">
+        <v>1288</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214">
@@ -29304,6 +29945,9 @@
           <t>All info in supplemental materials</t>
         </is>
       </c>
+      <c r="AN214">
+        <v>1320</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215">
@@ -29441,6 +30085,9 @@
           <t>All info in supplemental materials</t>
         </is>
       </c>
+      <c r="AN215">
+        <v>1321</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216">
@@ -29578,6 +30225,9 @@
           <t>All info in supplemental materials</t>
         </is>
       </c>
+      <c r="AN216">
+        <v>1322</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217">
@@ -29715,6 +30365,9 @@
           <t>All info in supplemental materials</t>
         </is>
       </c>
+      <c r="AN217">
+        <v>1323</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218">
@@ -29852,6 +30505,9 @@
           <t>All info in supplemental materials</t>
         </is>
       </c>
+      <c r="AN218">
+        <v>1324</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219">
@@ -29989,6 +30645,9 @@
           <t>All info in supplemental materials</t>
         </is>
       </c>
+      <c r="AN219">
+        <v>1325</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220">
@@ -30126,6 +30785,9 @@
           <t>All info in supplemental materials</t>
         </is>
       </c>
+      <c r="AN220">
+        <v>1326</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221">
@@ -30263,6 +30925,9 @@
           <t>All info in supplemental materials</t>
         </is>
       </c>
+      <c r="AN221">
+        <v>1327</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222">
@@ -30400,6 +31065,9 @@
           <t>All info in supplemental materials</t>
         </is>
       </c>
+      <c r="AN222">
+        <v>1328</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223">
@@ -30537,6 +31205,9 @@
           <t>All info in supplemental materials</t>
         </is>
       </c>
+      <c r="AN223">
+        <v>1329</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224">
@@ -30674,6 +31345,9 @@
           <t>All info in supplemental materials</t>
         </is>
       </c>
+      <c r="AN224">
+        <v>1330</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225">
@@ -30811,6 +31485,9 @@
           <t>other DVs: one question on how comfortable and worried participant is; for two scenarios. Women's perceived attractiveness is another scale but only used as a moderator. There is another within-person condition ("knowledge on sexual orientation (not yet known vs. known; a within-subjects variable)") but there are no statistical comparisons made on these scales for these groups</t>
         </is>
       </c>
+      <c r="AN225">
+        <v>1345</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226">
@@ -30948,6 +31625,9 @@
           <t>Regression used but in te same way of an anova (dummies for conditions). "we decided to merge the data from these six studies into one data set and to present the results all at once". All participants provide multiple data points if they bet on multiple games (each game is one study). These are then added (I assume!) to give a rating of confidence. These DVs are uncertainty (operationalized as imprecision and operationalized as probabilistic statements).</t>
         </is>
       </c>
+      <c r="AN226">
+        <v>1384</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227">
@@ -31085,6 +31765,9 @@
           <t>Regression used but in te same way of an anova (dummies for conditions). "we decided to merge the data from these six studies into one data set and to present the results all at once". All participants provide multiple data points if they bet on multiple games (each game is one study). These are then added (I assume!) to give a rating of confidence. These DVs are uncertainty (operationalized as imprecision and operationalized as probabilistic statements).</t>
         </is>
       </c>
+      <c r="AN227">
+        <v>1385</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228">
@@ -31182,6 +31865,9 @@
       <c r="AI228">
         <v>0</v>
       </c>
+      <c r="AN228">
+        <v>1396</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229">
@@ -31279,6 +31965,9 @@
       <c r="AI229">
         <v>0</v>
       </c>
+      <c r="AN229">
+        <v>1397</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230">
@@ -31391,6 +32080,9 @@
           <t>"The perceived-skill-acquisition measures were highly correlated in both Phase 1 (α = .85) and Phase 2 (α = .85); so we collapsed them into scales; although the effects held for each item individually as well" / "After watching; participants completed the same dependent measures from Experiment 5; plus an additional item explicitly about ability"</t>
         </is>
       </c>
+      <c r="AN230">
+        <v>1398</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231">
@@ -31503,6 +32195,9 @@
           <t>"The perceived-skill-acquisition measures were highly correlated in both Phase 1 (α = .85) and Phase 2 (α = .85); so we collapsed them into scales; although the effects held for each item individually as well" / "After watching; participants completed the same dependent measures from Experiment 5; plus an additional item explicitly about ability"</t>
         </is>
       </c>
+      <c r="AN231">
+        <v>1399</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232">
@@ -31650,6 +32345,9 @@
           <t>"We rephrased each of Dawkins’s items"</t>
         </is>
       </c>
+      <c r="AN232">
+        <v>1430</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233">
@@ -31792,6 +32490,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN233">
+        <v>1431</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234">
@@ -31934,6 +32635,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN234">
+        <v>1432</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235">
@@ -32081,6 +32785,9 @@
           <t>Statements for scale were written by authors</t>
         </is>
       </c>
+      <c r="AN235">
+        <v>1433</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236">
@@ -32213,6 +32920,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN236">
+        <v>1435</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237">
@@ -32345,6 +33055,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN237">
+        <v>1447</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238">
@@ -32477,6 +33190,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN238">
+        <v>1448</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239">
@@ -32644,6 +33360,9 @@
           <t>adapted questionnaire</t>
         </is>
       </c>
+      <c r="AN239">
+        <v>1449</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240">
@@ -32811,6 +33530,9 @@
           <t>adapted questionnaire</t>
         </is>
       </c>
+      <c r="AN240">
+        <v>1450</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241">
@@ -32918,6 +33640,9 @@
       <c r="AI241">
         <v>0</v>
       </c>
+      <c r="AN241">
+        <v>1458</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242">
@@ -33050,6 +33775,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN242">
+        <v>1463</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243">
@@ -33182,6 +33910,9 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AN243">
+        <v>1464</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244">
@@ -33319,6 +34050,9 @@
           <t>there are additional scales measured (e.g. belief in god); but they are not compared between groups in the results section</t>
         </is>
       </c>
+      <c r="AN244">
+        <v>1499</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245">
@@ -33456,6 +34190,9 @@
           <t>there are additional scales measured (e.g. belief in god); but they are not compared between groups in the results section</t>
         </is>
       </c>
+      <c r="AN245">
+        <v>1500</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246">
@@ -33593,6 +34330,9 @@
           <t>there are additional scales measured (e.g. belief in god); but they are not compared between groups in the results section</t>
         </is>
       </c>
+      <c r="AN246">
+        <v>1501</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247">
@@ -33715,6 +34455,9 @@
           <t>there are additional scales measured (e.g. belief in god); but they are not compared between groups in the results section</t>
         </is>
       </c>
+      <c r="AN247">
+        <v>1502</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248">
@@ -33837,6 +34580,9 @@
           <t>there are additional scales measured (e.g. belief in god); but they are not compared between groups in the results section</t>
         </is>
       </c>
+      <c r="AN248">
+        <v>1503</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249">
@@ -33959,6 +34705,9 @@
           <t>there are additional scales measured (e.g. belief in god); but they are not compared between groups in the results section</t>
         </is>
       </c>
+      <c r="AN249">
+        <v>1504</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250">
@@ -34081,6 +34830,9 @@
           <t>there are additional scales measured (e.g. belief in god); but they are not compared between groups in the results section</t>
         </is>
       </c>
+      <c r="AN250">
+        <v>1505</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251">
@@ -34203,6 +34955,9 @@
           <t>there are additional scales measured (e.g. belief in god); but they are not compared between groups in the results section</t>
         </is>
       </c>
+      <c r="AN251">
+        <v>1506</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252">
@@ -34325,6 +35080,9 @@
           <t>there are additional scales measured (e.g. belief in god); but they are not compared between groups in the results section</t>
         </is>
       </c>
+      <c r="AN252">
+        <v>1507</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253">
@@ -34447,6 +35205,9 @@
           <t>there are additional scales measured (e.g. belief in god); but they are not compared between groups in the results section</t>
         </is>
       </c>
+      <c r="AN253">
+        <v>1508</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254">
@@ -34569,6 +35330,9 @@
           <t>there are additional scales measured (e.g. belief in god); but they are not compared between groups in the results section</t>
         </is>
       </c>
+      <c r="AN254">
+        <v>1509</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255">
@@ -34691,6 +35455,9 @@
           <t>there are additional scales measured (e.g. belief in god); but they are not compared between groups in the results section</t>
         </is>
       </c>
+      <c r="AN255">
+        <v>1510</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256">
@@ -34813,6 +35580,9 @@
           <t>there are additional scales measured (e.g. belief in god); but they are not compared between groups in the results section</t>
         </is>
       </c>
+      <c r="AN256">
+        <v>1511</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257">
@@ -34935,6 +35705,9 @@
           <t>there are additional scales measured (e.g. belief in god); but they are not compared between groups in the results section</t>
         </is>
       </c>
+      <c r="AN257">
+        <v>1512</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258">
@@ -35057,6 +35830,9 @@
           <t>there are additional scales measured (e.g. belief in god); but they are not compared between groups in the results section</t>
         </is>
       </c>
+      <c r="AN258">
+        <v>1513</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259">
@@ -35179,6 +35955,9 @@
           <t>there are additional scales measured (e.g. belief in god); but they are not compared between groups in the results section</t>
         </is>
       </c>
+      <c r="AN259">
+        <v>1514</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260">
@@ -35301,6 +36080,9 @@
           <t>there are additional scales measured (e.g. belief in god); but they are not compared between groups in the results section</t>
         </is>
       </c>
+      <c r="AN260">
+        <v>1515</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261">
@@ -35423,6 +36205,9 @@
           <t>there are additional scales measured (e.g. belief in god); but they are not compared between groups in the results section</t>
         </is>
       </c>
+      <c r="AN261">
+        <v>1516</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262">
@@ -35550,6 +36335,9 @@
       <c r="AI262">
         <v>0</v>
       </c>
+      <c r="AN262">
+        <v>1604</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263">
@@ -35677,6 +36465,9 @@
       <c r="AI263">
         <v>0</v>
       </c>
+      <c r="AN263">
+        <v>1605</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264">
@@ -35804,6 +36595,9 @@
       <c r="AI264">
         <v>0</v>
       </c>
+      <c r="AN264">
+        <v>1606</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265">
@@ -35931,6 +36725,9 @@
       <c r="AI265">
         <v>0</v>
       </c>
+      <c r="AN265">
+        <v>1607</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266">
@@ -36053,6 +36850,9 @@
       <c r="AI266">
         <v>0</v>
       </c>
+      <c r="AN266">
+        <v>1609</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267">
@@ -36170,6 +36970,9 @@
       <c r="AI267">
         <v>0</v>
       </c>
+      <c r="AN267">
+        <v>1619</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268">
@@ -36287,6 +37090,9 @@
       <c r="AI268">
         <v>0</v>
       </c>
+      <c r="AN268">
+        <v>1620</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269">
@@ -36404,6 +37210,9 @@
       <c r="AI269">
         <v>0</v>
       </c>
+      <c r="AN269">
+        <v>1621</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270">
@@ -36521,6 +37330,9 @@
       <c r="AI270">
         <v>0</v>
       </c>
+      <c r="AN270">
+        <v>1623</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271">
@@ -36638,6 +37450,9 @@
       <c r="AI271">
         <v>0</v>
       </c>
+      <c r="AN271">
+        <v>1624</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272">
@@ -36755,6 +37570,9 @@
       <c r="AI272">
         <v>0</v>
       </c>
+      <c r="AN272">
+        <v>1625</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273">
@@ -36872,6 +37690,9 @@
       <c r="AI273">
         <v>0</v>
       </c>
+      <c r="AN273">
+        <v>1626</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274">
@@ -36989,6 +37810,9 @@
       <c r="AI274">
         <v>0</v>
       </c>
+      <c r="AN274">
+        <v>1628</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275">
@@ -37111,6 +37935,9 @@
           <t>well-being eudomonic is measured by 6 components; all measuring 2 items; but the 6 components are analyzed at once; so I think its ok to include?</t>
         </is>
       </c>
+      <c r="AN275">
+        <v>1629</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276">
@@ -37233,6 +38060,9 @@
           <t>The main comparisons are made between condition (1 = parent gain/friend lose; 0 = friend gain/parent lose); but the scale that is used (relationship quality) is entered as a moderator here. Afterwards; paired-sampled t-tests are performed for relationship quality between parents and friends. The samples are combined here; as you can see from the dfs (total N = 174): "Although parent relationship quality and friend relationship quality were correlated (r = .229; p = .002); participants reported greater levels of relationship quality with their friend than with their parent (parent: M = 3.72; friend: M = 4.21); t(173) = −8.90; p &lt; .001. Even though participants reported higher quality relationships with a close friend; they were still overall more likely to make choices that benefited a par-ent at the expense of their friend. These were preplanned exploratory analyses for our first sample and confirmatory analyses for the second sample."</t>
         </is>
       </c>
+      <c r="AN276">
+        <v>1673</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277">
@@ -37355,6 +38185,9 @@
           <t>scale was adapted to children. One scale with only two items omitted</t>
         </is>
       </c>
+      <c r="AN277">
+        <v>1674</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278">
@@ -37477,6 +38310,9 @@
           <t>scale was adapted to children.</t>
         </is>
       </c>
+      <c r="AN278">
+        <v>1675</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279">
@@ -37599,6 +38435,9 @@
           <t>also see table 1</t>
         </is>
       </c>
+      <c r="AN279">
+        <v>1708</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280">
@@ -37721,6 +38560,9 @@
           <t>also see table 1</t>
         </is>
       </c>
+      <c r="AN280">
+        <v>1709</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281">
@@ -37843,6 +38685,9 @@
           <t>also see table 1</t>
         </is>
       </c>
+      <c r="AN281">
+        <v>1710</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282">
@@ -37965,6 +38810,9 @@
           <t>also see table 1</t>
         </is>
       </c>
+      <c r="AN282">
+        <v>1711</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283">
@@ -38087,6 +38935,9 @@
           <t>also see table 1</t>
         </is>
       </c>
+      <c r="AN283">
+        <v>1712</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284">
@@ -38209,6 +39060,9 @@
           <t>also see table 1</t>
         </is>
       </c>
+      <c r="AN284">
+        <v>1713</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285">
@@ -38331,6 +39185,9 @@
           <t>also see table 1</t>
         </is>
       </c>
+      <c r="AN285">
+        <v>1714</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286">
@@ -38453,6 +39310,9 @@
           <t>also see table 1</t>
         </is>
       </c>
+      <c r="AN286">
+        <v>1715</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287">
@@ -38575,6 +39435,9 @@
           <t>also see table 1</t>
         </is>
       </c>
+      <c r="AN287">
+        <v>1716</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288">
@@ -38697,6 +39560,9 @@
           <t>also see table 1</t>
         </is>
       </c>
+      <c r="AN288">
+        <v>1717</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289">
@@ -38819,6 +39685,9 @@
           <t>also see table 1</t>
         </is>
       </c>
+      <c r="AN289">
+        <v>1718</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290">
@@ -38941,6 +39810,9 @@
           <t>also see table 1</t>
         </is>
       </c>
+      <c r="AN290">
+        <v>1719</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291">
@@ -39063,6 +39935,9 @@
           <t>also see table 1</t>
         </is>
       </c>
+      <c r="AN291">
+        <v>1720</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292">
@@ -39185,6 +40060,9 @@
           <t>also see table 1</t>
         </is>
       </c>
+      <c r="AN292">
+        <v>1721</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293">
@@ -39307,6 +40185,9 @@
           <t>also see table 1</t>
         </is>
       </c>
+      <c r="AN293">
+        <v>1722</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294">
@@ -39429,6 +40310,9 @@
           <t>also see table 1</t>
         </is>
       </c>
+      <c r="AN294">
+        <v>1723</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295">
@@ -39550,6 +40434,9 @@
         <is>
           <t>We only coded the studies that are fully reported in the manuscript; not from the supplemental material ("Overall; we conducted 32 studies (5 of which are fully reported in the main text and an additional 6 are fully reported in the Supplemental Material).")</t>
         </is>
+      </c>
+      <c r="AN295">
+        <v>1792</v>
       </c>
     </row>
   </sheetData>
